--- a/excel sheets/shannon_values.xlsx
+++ b/excel sheets/shannon_values.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Shannon</t>
   </si>
@@ -603,9 +603,6 @@
   </si>
   <si>
     <t>1C</t>
-  </si>
-  <si>
-    <t>7A</t>
   </si>
 </sst>
 </file>
@@ -707,7 +704,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.761491682042971</v>
+        <v>6.761491682042972</v>
       </c>
     </row>
     <row r="8">
@@ -747,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6.055568890875331</v>
+        <v>6.055568890875332</v>
       </c>
     </row>
     <row r="13">
@@ -779,7 +776,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>6.433476197743804</v>
+        <v>6.433476197743805</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +784,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>6.269295456596328</v>
+        <v>6.2692954565963275</v>
       </c>
     </row>
     <row r="18">
@@ -795,7 +792,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>6.235395372596733</v>
+        <v>6.2353953725967335</v>
       </c>
     </row>
     <row r="19">
@@ -843,7 +840,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6.1761277148214475</v>
+        <v>6.176127714821447</v>
       </c>
     </row>
     <row r="25">
@@ -891,7 +888,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>6.409818420981409</v>
+        <v>6.409818420981408</v>
       </c>
     </row>
     <row r="31">
@@ -899,7 +896,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>6.475798837486224</v>
+        <v>6.475798837486223</v>
       </c>
     </row>
     <row r="32">
@@ -907,7 +904,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>6.231971139472717</v>
+        <v>6.231971139472716</v>
       </c>
     </row>
     <row r="33">
@@ -915,7 +912,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>6.2851772675788435</v>
+        <v>6.285177267578844</v>
       </c>
     </row>
     <row r="34">
@@ -939,7 +936,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>6.430901260692204</v>
+        <v>6.430901260692203</v>
       </c>
     </row>
     <row r="37">
@@ -947,7 +944,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>6.516443183854661</v>
+        <v>6.516443183854662</v>
       </c>
     </row>
     <row r="38">
@@ -971,7 +968,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>6.347693670282981</v>
+        <v>6.34769367028298</v>
       </c>
     </row>
     <row r="41">
@@ -979,7 +976,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>6.6204736108899045</v>
+        <v>6.620473610889904</v>
       </c>
     </row>
     <row r="42">
@@ -987,7 +984,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>5.886357853212928</v>
+        <v>5.886357853212929</v>
       </c>
     </row>
     <row r="43">
@@ -995,7 +992,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>6.571874721054437</v>
+        <v>6.571874721054438</v>
       </c>
     </row>
     <row r="44">
@@ -1035,7 +1032,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>5.910892770852484</v>
+        <v>5.910892770852483</v>
       </c>
     </row>
     <row r="49">
@@ -1051,7 +1048,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>6.199325588604441</v>
+        <v>6.19932558860444</v>
       </c>
     </row>
     <row r="51">
@@ -1059,7 +1056,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>6.153447060052097</v>
+        <v>6.153447060052098</v>
       </c>
     </row>
     <row r="52">
@@ -1067,7 +1064,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>6.54118219299911</v>
+        <v>6.541182192999109</v>
       </c>
     </row>
     <row r="53">
@@ -1075,7 +1072,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>6.320395969606491</v>
+        <v>6.32039596960649</v>
       </c>
     </row>
     <row r="54">
@@ -1083,7 +1080,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>6.450031433642284</v>
+        <v>6.450031433642283</v>
       </c>
     </row>
     <row r="55">
@@ -1139,7 +1136,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>6.129056085336171</v>
+        <v>6.129056085336172</v>
       </c>
     </row>
     <row r="62">
@@ -1227,7 +1224,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>6.064209864048428</v>
+        <v>6.064209864048429</v>
       </c>
     </row>
     <row r="73">
@@ -1235,7 +1232,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>6.204381291913675</v>
+        <v>6.204381291913676</v>
       </c>
     </row>
     <row r="74">
@@ -1267,7 +1264,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>6.199878976494405</v>
+        <v>6.199878976494406</v>
       </c>
     </row>
     <row r="78">
@@ -1275,7 +1272,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>5.982466732146069</v>
+        <v>5.98246673214607</v>
       </c>
     </row>
     <row r="79">
@@ -1299,7 +1296,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>6.197387183142962</v>
+        <v>6.197387183142963</v>
       </c>
     </row>
     <row r="82">
@@ -1315,7 +1312,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>6.159876858513992</v>
+        <v>6.159876858513993</v>
       </c>
     </row>
     <row r="84">
@@ -1339,7 +1336,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>6.076447361467254</v>
+        <v>6.076447361467255</v>
       </c>
     </row>
     <row r="87">
@@ -1371,7 +1368,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>6.5687558356137306</v>
+        <v>6.56875583561373</v>
       </c>
     </row>
     <row r="91">
@@ -1379,7 +1376,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>6.020380348851734</v>
+        <v>6.0203803488517345</v>
       </c>
     </row>
     <row r="92">
@@ -1395,7 +1392,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>6.073219764175489</v>
+        <v>6.073219764175488</v>
       </c>
     </row>
     <row r="94">
@@ -1451,7 +1448,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>5.913675284610417</v>
+        <v>5.9136752846104175</v>
       </c>
     </row>
     <row r="101">
@@ -1459,7 +1456,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>6.006461105390676</v>
+        <v>6.0064611053906765</v>
       </c>
     </row>
     <row r="102">
@@ -1467,7 +1464,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>6.148640959400468</v>
+        <v>6.148640959400467</v>
       </c>
     </row>
     <row r="103">
@@ -1475,7 +1472,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>6.077918441723938</v>
+        <v>6.077918441723939</v>
       </c>
     </row>
     <row r="104">
@@ -1483,7 +1480,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>6.191232939712447</v>
+        <v>6.191232939712448</v>
       </c>
     </row>
     <row r="105">
@@ -1507,7 +1504,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>5.960214826682427</v>
+        <v>5.960214826682426</v>
       </c>
     </row>
     <row r="108">
@@ -1523,7 +1520,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>5.972243249605591</v>
+        <v>5.972243249605592</v>
       </c>
     </row>
     <row r="110">
@@ -1539,7 +1536,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>6.031834073507179</v>
+        <v>6.03183407350718</v>
       </c>
     </row>
     <row r="112">
@@ -1547,7 +1544,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>6.41063926597397</v>
+        <v>6.410639265973969</v>
       </c>
     </row>
     <row r="113">
@@ -1563,7 +1560,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>6.405808105731428</v>
+        <v>6.405808105731427</v>
       </c>
     </row>
     <row r="115">
@@ -1595,7 +1592,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>6.450603973647187</v>
+        <v>6.450603973647189</v>
       </c>
     </row>
     <row r="119">
@@ -1627,7 +1624,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>6.549076188351851</v>
+        <v>6.54907618835185</v>
       </c>
     </row>
     <row r="123">
@@ -1635,7 +1632,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>5.318205970546054</v>
+        <v>5.318205970546053</v>
       </c>
     </row>
     <row r="124">
@@ -1643,7 +1640,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>6.4513641040995156</v>
+        <v>6.451364104099515</v>
       </c>
     </row>
     <row r="125">
@@ -1675,7 +1672,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>5.933195512359153</v>
+        <v>5.933195512359152</v>
       </c>
     </row>
     <row r="129">
@@ -1683,7 +1680,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>5.890063093247957</v>
+        <v>5.890063093247958</v>
       </c>
     </row>
     <row r="130">
@@ -1715,7 +1712,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>5.973788363050217</v>
+        <v>5.973788363050216</v>
       </c>
     </row>
     <row r="134">
@@ -1747,7 +1744,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>6.5007152996736774</v>
+        <v>6.500715299673678</v>
       </c>
     </row>
     <row r="138">
@@ -1755,7 +1752,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>6.217620156171158</v>
+        <v>6.217620156171157</v>
       </c>
     </row>
     <row r="139">
@@ -1763,7 +1760,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>6.041873392373327</v>
+        <v>6.041873392373328</v>
       </c>
     </row>
     <row r="140">
@@ -1779,7 +1776,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>5.777918426427244</v>
+        <v>5.777918426427245</v>
       </c>
     </row>
     <row r="142">
@@ -1811,7 +1808,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>6.392234789164794</v>
+        <v>6.392234789164793</v>
       </c>
     </row>
     <row r="146">
@@ -1859,7 +1856,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>6.033065879655939</v>
+        <v>6.03306587965594</v>
       </c>
     </row>
     <row r="152">
@@ -1907,7 +1904,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>5.893463049475145</v>
+        <v>5.8934630494751445</v>
       </c>
     </row>
     <row r="158">
@@ -1931,7 +1928,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>5.699527464674115</v>
+        <v>5.699527464674114</v>
       </c>
     </row>
     <row r="161">
@@ -1963,7 +1960,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>6.078597319563985</v>
+        <v>6.078597319563986</v>
       </c>
     </row>
     <row r="165">
@@ -1995,7 +1992,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>5.636997019310361</v>
+        <v>5.636997019310362</v>
       </c>
     </row>
     <row r="169">
@@ -2043,7 +2040,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>6.141707409537102</v>
+        <v>6.141707409537101</v>
       </c>
     </row>
     <row r="175">
@@ -2059,7 +2056,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>6.013629623774437</v>
+        <v>6.013629623774436</v>
       </c>
     </row>
     <row r="177">
@@ -2067,7 +2064,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>6.442416742678951</v>
+        <v>6.44241674267895</v>
       </c>
     </row>
     <row r="178">
@@ -2091,7 +2088,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>6.148370565143231</v>
+        <v>6.148370565143232</v>
       </c>
     </row>
     <row r="181">
@@ -2099,7 +2096,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>6.294159433802831</v>
+        <v>6.2941594338028315</v>
       </c>
     </row>
     <row r="182">
@@ -2123,7 +2120,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>5.926407725622396</v>
+        <v>5.926407725622395</v>
       </c>
     </row>
     <row r="185">
@@ -2139,7 +2136,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>6.172338743949574</v>
+        <v>6.172338743949573</v>
       </c>
     </row>
     <row r="187">
@@ -2147,7 +2144,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>5.414527416534751</v>
+        <v>5.41452741653475</v>
       </c>
     </row>
     <row r="188">
@@ -2155,7 +2152,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>6.374325843509826</v>
+        <v>6.374325843509827</v>
       </c>
     </row>
     <row r="189">
@@ -2171,7 +2168,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>5.54310909963343</v>
+        <v>5.543109099633429</v>
       </c>
     </row>
     <row r="191">
@@ -2219,7 +2216,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>5.367070195700417</v>
+        <v>5.367070195700418</v>
       </c>
     </row>
     <row r="197">
@@ -2227,15 +2224,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>4.708259123437958</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>197</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0.0</v>
+        <v>4.7082591234379585</v>
       </c>
     </row>
   </sheetData>
